--- a/CME_DEMO_DEVOPS_AUTOTEST/data/ART Test Data - Devops.xlsx
+++ b/CME_DEMO_DEVOPS_AUTOTEST/data/ART Test Data - Devops.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonnbh.FSOFT.FPT.VN\Desktop\git\CME-RnD\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="6765" activeTab="1"/>
   </bookViews>
@@ -38,7 +33,7 @@
     <definedName name="Type">#REF!</definedName>
     <definedName name="Yes_No">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -51,15 +46,6 @@
     <t>Test Title</t>
   </si>
   <si>
-    <t>DEVOPS-1</t>
-  </si>
-  <si>
-    <t>DEVOPS-2</t>
-  </si>
-  <si>
-    <t>DEVOPS-3</t>
-  </si>
-  <si>
     <t>Create account success</t>
   </si>
   <si>
@@ -103,12 +89,21 @@
   </si>
   <si>
     <t>Failure_ Email_</t>
+  </si>
+  <si>
+    <t>DEVOPS-4</t>
+  </si>
+  <si>
+    <t>DEVOPS-5</t>
+  </si>
+  <si>
+    <t>DEVOPS-6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
@@ -321,7 +316,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,7 +351,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -585,7 +580,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -600,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -614,18 +609,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -633,21 +628,21 @@
     </row>
     <row r="4" spans="1:4" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="17">
         <v>1234</v>
@@ -661,21 +656,21 @@
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="17">
         <v>1234</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -683,16 +678,16 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="2" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">

--- a/CME_DEMO_DEVOPS_AUTOTEST/data/ART Test Data - Devops.xlsx
+++ b/CME_DEMO_DEVOPS_AUTOTEST/data/ART Test Data - Devops.xlsx
@@ -580,7 +580,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
